--- a/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
+++ b/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPPECbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hppecbp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B03BF-A1ED-3A4B-8141-F4DEAF04FEA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="HPPECbP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,6 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,19 +432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,59 +455,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -501,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -509,13 +523,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,7 +636,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,7 +776,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,7 +917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>

--- a/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
+++ b/InputData/hydgn/HPPECbP/Hydgn Prod Perc Excess Cap by Pathway.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hppecbp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/hppecbp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B03BF-A1ED-3A4B-8141-F4DEAF04FEA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948C957-3F28-5E4F-A57D-AA487E2E99F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
